--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.641064008905373</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.641064008905373</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="P2">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="Q2">
-        <v>7.213340848459578</v>
+        <v>0.07219382072444444</v>
       </c>
       <c r="R2">
-        <v>7.213340848459578</v>
+        <v>0.64974438652</v>
       </c>
       <c r="S2">
-        <v>0.01013553354332338</v>
+        <v>5.878251351826311E-05</v>
       </c>
       <c r="T2">
-        <v>0.01013553354332338</v>
+        <v>5.87825135182631E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.398471992045962</v>
+        <v>0.2626486666666667</v>
       </c>
       <c r="N3">
-        <v>0.398471992045962</v>
+        <v>0.787946</v>
       </c>
       <c r="O3">
-        <v>0.3833171642745407</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="P3">
-        <v>0.3833171642745407</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="Q3">
-        <v>4.483661939000655</v>
+        <v>5.204467727771556</v>
       </c>
       <c r="R3">
-        <v>4.483661939000655</v>
+        <v>46.840209549944</v>
       </c>
       <c r="S3">
-        <v>0.006300035855004441</v>
+        <v>0.004237643769136446</v>
       </c>
       <c r="T3">
-        <v>0.006300035855004441</v>
+        <v>0.004237643769136445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.641064008905373</v>
+        <v>0.7039083333333332</v>
       </c>
       <c r="N4">
-        <v>0.641064008905373</v>
+        <v>2.111725</v>
       </c>
       <c r="O4">
-        <v>0.6166828357254592</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="P4">
-        <v>0.6166828357254592</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="Q4">
-        <v>332.0566377300133</v>
+        <v>13.94816981421111</v>
       </c>
       <c r="R4">
-        <v>332.0566377300133</v>
+        <v>125.5335283279</v>
       </c>
       <c r="S4">
-        <v>0.4665759265645204</v>
+        <v>0.01135704513809279</v>
       </c>
       <c r="T4">
-        <v>0.4665759265645204</v>
+        <v>0.01135704513809279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.398471992045962</v>
+        <v>0.03064833333333333</v>
       </c>
       <c r="N5">
-        <v>0.398471992045962</v>
+        <v>0.091945</v>
       </c>
       <c r="O5">
-        <v>0.3833171642745407</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="P5">
-        <v>0.3833171642745407</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="Q5">
-        <v>206.3994672455457</v>
+        <v>0.6073065733311112</v>
       </c>
       <c r="R5">
-        <v>206.3994672455457</v>
+        <v>5.465759159979999</v>
       </c>
       <c r="S5">
-        <v>0.2900138462246725</v>
+        <v>0.0004944883993995152</v>
       </c>
       <c r="T5">
-        <v>0.2900138462246725</v>
+        <v>0.0004944883993995152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.8465022971811</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>34.8465022971811</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.05089895756814228</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.05089895756814228</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.641064008905373</v>
+        <v>0.5169776666666667</v>
       </c>
       <c r="N6">
-        <v>0.641064008905373</v>
+        <v>1.550933</v>
       </c>
       <c r="O6">
-        <v>0.6166828357254592</v>
+        <v>0.3406039645730221</v>
       </c>
       <c r="P6">
-        <v>0.6166828357254592</v>
+        <v>0.3406039645730222</v>
       </c>
       <c r="Q6">
-        <v>22.3388384589612</v>
+        <v>10.24407858715689</v>
       </c>
       <c r="R6">
-        <v>22.3388384589612</v>
+        <v>92.196707284412</v>
       </c>
       <c r="S6">
-        <v>0.03138851348859181</v>
+        <v>0.008341055813213207</v>
       </c>
       <c r="T6">
-        <v>0.03138851348859181</v>
+        <v>0.008341055813213207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H7">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J7">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.398471992045962</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N7">
-        <v>0.398471992045962</v>
+        <v>0.01093</v>
       </c>
       <c r="O7">
-        <v>0.3833171642745407</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="P7">
-        <v>0.3833171642745407</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="Q7">
-        <v>13.88535518619194</v>
+        <v>1.932058028381111</v>
       </c>
       <c r="R7">
-        <v>13.88535518619194</v>
+        <v>17.38852225543</v>
       </c>
       <c r="S7">
-        <v>0.01951044407955047</v>
+        <v>0.001573143324895766</v>
       </c>
       <c r="T7">
-        <v>0.01951044407955047</v>
+        <v>0.001573143324895766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.9659636424671</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>41.9659636424671</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.06129808336364732</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.06129808336364732</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.641064008905373</v>
+        <v>0.2626486666666667</v>
       </c>
       <c r="N8">
-        <v>0.641064008905373</v>
+        <v>0.787946</v>
       </c>
       <c r="O8">
-        <v>0.6166828357254592</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="P8">
-        <v>0.6166828357254592</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="Q8">
-        <v>26.90286889021709</v>
+        <v>139.2824698289829</v>
       </c>
       <c r="R8">
-        <v>26.90286889021709</v>
+        <v>1253.542228460846</v>
       </c>
       <c r="S8">
-        <v>0.03780147587322963</v>
+        <v>0.1134082333283001</v>
       </c>
       <c r="T8">
-        <v>0.03780147587322963</v>
+        <v>0.1134082333283001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.9659636424671</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>41.9659636424671</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.06129808336364732</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.06129808336364732</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.398471992045962</v>
+        <v>0.7039083333333332</v>
       </c>
       <c r="N9">
-        <v>0.398471992045962</v>
+        <v>2.111725</v>
       </c>
       <c r="O9">
-        <v>0.3833171642745407</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="P9">
-        <v>0.3833171642745407</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="Q9">
-        <v>16.72226113074228</v>
+        <v>373.2822726425527</v>
       </c>
       <c r="R9">
-        <v>16.72226113074228</v>
+        <v>3359.540453782975</v>
       </c>
       <c r="S9">
-        <v>0.02349660749041769</v>
+        <v>0.3039383428879699</v>
       </c>
       <c r="T9">
-        <v>0.02349660749041769</v>
+        <v>0.30393834288797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.8948812832746</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>38.8948812832746</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.05681227043023694</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.05681227043023694</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.641064008905373</v>
+        <v>0.03064833333333333</v>
       </c>
       <c r="N10">
-        <v>0.641064008905373</v>
+        <v>0.091945</v>
       </c>
       <c r="O10">
-        <v>0.6166828357254592</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="P10">
-        <v>0.6166828357254592</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="Q10">
-        <v>24.93410852135457</v>
+        <v>16.25279738513278</v>
       </c>
       <c r="R10">
-        <v>24.93410852135457</v>
+        <v>146.275176466195</v>
       </c>
       <c r="S10">
-        <v>0.03503515203292017</v>
+        <v>0.01323354647827459</v>
       </c>
       <c r="T10">
-        <v>0.03503515203292017</v>
+        <v>0.01323354647827459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.8948812832746</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>38.8948812832746</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.05681227043023694</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.05681227043023694</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.398471992045962</v>
+        <v>0.5169776666666667</v>
       </c>
       <c r="N11">
-        <v>0.398471992045962</v>
+        <v>1.550933</v>
       </c>
       <c r="O11">
-        <v>0.3833171642745407</v>
+        <v>0.3406039645730221</v>
       </c>
       <c r="P11">
-        <v>0.3833171642745407</v>
+        <v>0.3406039645730222</v>
       </c>
       <c r="Q11">
-        <v>15.49852082533763</v>
+        <v>274.1530241657092</v>
       </c>
       <c r="R11">
-        <v>15.49852082533763</v>
+        <v>2467.377217491383</v>
       </c>
       <c r="S11">
-        <v>0.02177711839731676</v>
+        <v>0.223224144218716</v>
       </c>
       <c r="T11">
-        <v>0.02177711839731676</v>
+        <v>0.223224144218716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.684301501429</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H12">
-        <v>39.684301501429</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I12">
-        <v>0.05796534645045275</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J12">
-        <v>0.05796534645045275</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.641064008905373</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N12">
-        <v>0.641064008905373</v>
+        <v>0.01093</v>
       </c>
       <c r="O12">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="P12">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="Q12">
-        <v>25.44017741111558</v>
+        <v>0.4159053166022221</v>
       </c>
       <c r="R12">
-        <v>25.44017741111558</v>
+        <v>3.743147849419999</v>
       </c>
       <c r="S12">
-        <v>0.03574623422287388</v>
+        <v>0.0003386433859596195</v>
       </c>
       <c r="T12">
-        <v>0.03574623422287388</v>
+        <v>0.0003386433859596195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>114.1551646666666</v>
+      </c>
+      <c r="H13">
+        <v>342.4654939999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="J13">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.787946</v>
+      </c>
+      <c r="O13">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P13">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q13">
+        <v>29.98270179281377</v>
+      </c>
+      <c r="R13">
+        <v>269.8443161353239</v>
+      </c>
+      <c r="S13">
+        <v>0.02441287295455978</v>
+      </c>
+      <c r="T13">
+        <v>0.02441287295455978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>114.1551646666666</v>
+      </c>
+      <c r="H14">
+        <v>342.4654939999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="J14">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N14">
+        <v>2.111725</v>
+      </c>
+      <c r="O14">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P14">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q14">
+        <v>80.35477170190552</v>
+      </c>
+      <c r="R14">
+        <v>723.1929453171498</v>
+      </c>
+      <c r="S14">
+        <v>0.06542742033079391</v>
+      </c>
+      <c r="T14">
+        <v>0.06542742033079391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>114.1551646666666</v>
+      </c>
+      <c r="H15">
+        <v>342.4654939999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="J15">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.091945</v>
+      </c>
+      <c r="O15">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P15">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q15">
+        <v>3.498665538425555</v>
+      </c>
+      <c r="R15">
+        <v>31.48798984582999</v>
+      </c>
+      <c r="S15">
+        <v>0.002848725171276963</v>
+      </c>
+      <c r="T15">
+        <v>0.002848725171276964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>114.1551646666666</v>
+      </c>
+      <c r="H16">
+        <v>342.4654939999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="J16">
+        <v>0.1410801048907614</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.550933</v>
+      </c>
+      <c r="O16">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P16">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q16">
+        <v>59.01567066732243</v>
+      </c>
+      <c r="R16">
+        <v>531.1410360059019</v>
+      </c>
+      <c r="S16">
+        <v>0.04805244304817113</v>
+      </c>
+      <c r="T16">
+        <v>0.04805244304817115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>42.33003733333333</v>
+      </c>
+      <c r="H17">
+        <v>126.990112</v>
+      </c>
+      <c r="I17">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="J17">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.01093</v>
+      </c>
+      <c r="O17">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P17">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q17">
+        <v>0.1542224360177778</v>
+      </c>
+      <c r="R17">
+        <v>1.38800192416</v>
+      </c>
+      <c r="S17">
+        <v>0.000125572830736259</v>
+      </c>
+      <c r="T17">
+        <v>0.000125572830736259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>42.33003733333333</v>
+      </c>
+      <c r="H18">
+        <v>126.990112</v>
+      </c>
+      <c r="I18">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="J18">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.787946</v>
+      </c>
+      <c r="O18">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P18">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q18">
+        <v>11.11792786555022</v>
+      </c>
+      <c r="R18">
+        <v>100.061350789952</v>
+      </c>
+      <c r="S18">
+        <v>0.009052571792068831</v>
+      </c>
+      <c r="T18">
+        <v>0.009052571792068831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>42.33003733333333</v>
+      </c>
+      <c r="H19">
+        <v>126.990112</v>
+      </c>
+      <c r="I19">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="J19">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N19">
+        <v>2.111725</v>
+      </c>
+      <c r="O19">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P19">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q19">
+        <v>29.79646602924444</v>
+      </c>
+      <c r="R19">
+        <v>268.1681942632</v>
+      </c>
+      <c r="S19">
+        <v>0.02426123385055137</v>
+      </c>
+      <c r="T19">
+        <v>0.02426123385055137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>42.33003733333333</v>
+      </c>
+      <c r="H20">
+        <v>126.990112</v>
+      </c>
+      <c r="I20">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="J20">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.091945</v>
+      </c>
+      <c r="O20">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P20">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q20">
+        <v>1.297345094204444</v>
+      </c>
+      <c r="R20">
+        <v>11.67610584784</v>
+      </c>
+      <c r="S20">
+        <v>0.001056339791586947</v>
+      </c>
+      <c r="T20">
+        <v>0.001056339791586947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.684301501429</v>
-      </c>
-      <c r="H13">
-        <v>39.684301501429</v>
-      </c>
-      <c r="I13">
-        <v>0.05796534645045275</v>
-      </c>
-      <c r="J13">
-        <v>0.05796534645045275</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.398471992045962</v>
-      </c>
-      <c r="N13">
-        <v>0.398471992045962</v>
-      </c>
-      <c r="O13">
-        <v>0.3833171642745407</v>
-      </c>
-      <c r="P13">
-        <v>0.3833171642745407</v>
-      </c>
-      <c r="Q13">
-        <v>15.81308267222697</v>
-      </c>
-      <c r="R13">
-        <v>15.81308267222697</v>
-      </c>
-      <c r="S13">
-        <v>0.02221911222757886</v>
-      </c>
-      <c r="T13">
-        <v>0.02221911222757886</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>42.33003733333333</v>
+      </c>
+      <c r="H21">
+        <v>126.990112</v>
+      </c>
+      <c r="I21">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="J21">
+        <v>0.05231411232645103</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.550933</v>
+      </c>
+      <c r="O21">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P21">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q21">
+        <v>21.88368393049955</v>
+      </c>
+      <c r="R21">
+        <v>196.953155374496</v>
+      </c>
+      <c r="S21">
+        <v>0.01781839406150763</v>
+      </c>
+      <c r="T21">
+        <v>0.01781839406150763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H22">
+        <v>138.661867</v>
+      </c>
+      <c r="I22">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J22">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.01093</v>
+      </c>
+      <c r="O22">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P22">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q22">
+        <v>0.1683971340344445</v>
+      </c>
+      <c r="R22">
+        <v>1.51557420631</v>
+      </c>
+      <c r="S22">
+        <v>0.0001371143223683798</v>
+      </c>
+      <c r="T22">
+        <v>0.0001371143223683798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H23">
+        <v>138.661867</v>
+      </c>
+      <c r="I23">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J23">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.787946</v>
+      </c>
+      <c r="O23">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P23">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q23">
+        <v>12.13978482835356</v>
+      </c>
+      <c r="R23">
+        <v>109.258063455182</v>
+      </c>
+      <c r="S23">
+        <v>0.009884600352504611</v>
+      </c>
+      <c r="T23">
+        <v>0.009884600352504611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H24">
+        <v>138.661867</v>
+      </c>
+      <c r="I24">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J24">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.111725</v>
+      </c>
+      <c r="O24">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P24">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q24">
+        <v>32.5350812322861</v>
+      </c>
+      <c r="R24">
+        <v>292.815731090575</v>
+      </c>
+      <c r="S24">
+        <v>0.02649110177523941</v>
+      </c>
+      <c r="T24">
+        <v>0.02649110177523942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H25">
+        <v>138.661867</v>
+      </c>
+      <c r="I25">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J25">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.091945</v>
+      </c>
+      <c r="O25">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P25">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q25">
+        <v>1.416585040146111</v>
+      </c>
+      <c r="R25">
+        <v>12.749265361315</v>
+      </c>
+      <c r="S25">
+        <v>0.001153428762137299</v>
+      </c>
+      <c r="T25">
+        <v>0.001153428762137299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H26">
+        <v>138.661867</v>
+      </c>
+      <c r="I26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.550933</v>
+      </c>
+      <c r="O26">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P26">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q26">
+        <v>23.89502948576789</v>
+      </c>
+      <c r="R26">
+        <v>215.055265371911</v>
+      </c>
+      <c r="S26">
+        <v>0.01945609582193581</v>
+      </c>
+      <c r="T26">
+        <v>0.01945609582193581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>56.330706</v>
+      </c>
+      <c r="H27">
+        <v>168.992118</v>
+      </c>
+      <c r="I27">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J27">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.01093</v>
+      </c>
+      <c r="O27">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P27">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q27">
+        <v>0.20523153886</v>
+      </c>
+      <c r="R27">
+        <v>1.84708384974</v>
+      </c>
+      <c r="S27">
+        <v>0.0001671060706630127</v>
+      </c>
+      <c r="T27">
+        <v>0.0001671060706630128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>56.330706</v>
+      </c>
+      <c r="H28">
+        <v>168.992118</v>
+      </c>
+      <c r="I28">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J28">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.787946</v>
+      </c>
+      <c r="O28">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P28">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q28">
+        <v>14.795184823292</v>
+      </c>
+      <c r="R28">
+        <v>133.156663409628</v>
+      </c>
+      <c r="S28">
+        <v>0.01204671179822857</v>
+      </c>
+      <c r="T28">
+        <v>0.01204671179822857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>56.330706</v>
+      </c>
+      <c r="H29">
+        <v>168.992118</v>
+      </c>
+      <c r="I29">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J29">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N29">
+        <v>2.111725</v>
+      </c>
+      <c r="O29">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P29">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q29">
+        <v>39.65165337595</v>
+      </c>
+      <c r="R29">
+        <v>356.86488038355</v>
+      </c>
+      <c r="S29">
+        <v>0.03228564200099273</v>
+      </c>
+      <c r="T29">
+        <v>0.03228564200099274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>56.330706</v>
+      </c>
+      <c r="H30">
+        <v>168.992118</v>
+      </c>
+      <c r="I30">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J30">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.091945</v>
+      </c>
+      <c r="O30">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P30">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q30">
+        <v>1.72644225439</v>
+      </c>
+      <c r="R30">
+        <v>15.53798028951</v>
+      </c>
+      <c r="S30">
+        <v>0.001405724397722846</v>
+      </c>
+      <c r="T30">
+        <v>0.001405724397722847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>56.330706</v>
+      </c>
+      <c r="H31">
+        <v>168.992118</v>
+      </c>
+      <c r="I31">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J31">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N31">
+        <v>1.550933</v>
+      </c>
+      <c r="O31">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P31">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q31">
+        <v>29.121716949566</v>
+      </c>
+      <c r="R31">
+        <v>262.095452546094</v>
+      </c>
+      <c r="S31">
+        <v>0.02371183160947835</v>
+      </c>
+      <c r="T31">
+        <v>0.02371183160947836</v>
       </c>
     </row>
   </sheetData>
